--- a/data/file/04-四川离职人员导入模板.xlsx
+++ b/data/file/04-四川离职人员导入模板.xlsx
@@ -1338,7 +1338,7 @@
         </row>
         <row r="15">
           <cell r="K15" t="str">
-            <v>00008644000000000000342812</v>
+            <v>00008644000000000000342105</v>
           </cell>
         </row>
         <row r="16">
@@ -1646,7 +1646,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C6" s="24">
         <f ca="1" t="shared" ref="C6:C10" si="0">TODAY()</f>
-        <v>44728</v>
+        <v>44733</v>
       </c>
       <c r="D6" s="25" t="str">
         <f>[1]在职人员信息导入模板!$D$13</f>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="C7" s="24">
         <f ca="1" t="shared" si="0"/>
-        <v>44728</v>
+        <v>44733</v>
       </c>
       <c r="D7" s="25" t="str">
         <f>[1]在职人员信息导入模板!$D$14</f>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C8" s="24">
         <f ca="1" t="shared" si="0"/>
-        <v>44728</v>
+        <v>44733</v>
       </c>
       <c r="D8" s="25" t="str">
         <f>[1]在职人员信息导入模板!$D$15</f>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F8" s="26" t="str">
         <f>[1]在职人员信息导入模板!$K$15</f>
-        <v>00008644000000000000342812</v>
+        <v>00008644000000000000342105</v>
       </c>
     </row>
     <row r="9" s="12" customFormat="1" ht="39" customHeight="1" spans="1:6">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="C9" s="24">
         <f ca="1" t="shared" si="0"/>
-        <v>44728</v>
+        <v>44733</v>
       </c>
       <c r="D9" s="25" t="str">
         <f>[1]在职人员信息导入模板!$D$16</f>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="C10" s="24">
         <f ca="1" t="shared" si="0"/>
-        <v>44728</v>
+        <v>44733</v>
       </c>
       <c r="D10" s="25" t="str">
         <f>[1]在职人员信息导入模板!$D$17</f>
